--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farzane\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farzane\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC9AEA7-4F45-44F4-9041-5A0E3C5A41A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967ECEF-54AF-414E-AF10-5DC9B1811E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A621AC28-CD96-4C7C-906F-EBB08ACD1D57}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>99\3\19</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>9:10-</t>
+  </si>
+  <si>
+    <t>99/3/29</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>4-8</t>
   </si>
 </sst>
 </file>
@@ -577,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44A1E88-570E-4826-A54E-E775FD0FD363}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,6 +752,28 @@
         <v>32</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
